--- a/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>521,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>199,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>401,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,09%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,72; 9,92</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 11,1</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3,13; 16,59</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,24; 4,66</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,22; 1479,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,5; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,58; 425,71</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>296,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>342,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 10,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 8,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,6; 4,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 190,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>128,33; 628,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>131,76; 845,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 121,61</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>179,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>323,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,85%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 6,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 6,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,68; 7,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,48; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,66; 388,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,25; 235,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>148,9; 613,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,29; 301,64</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>302,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>234,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,63%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,4; 6,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 7,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 5,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 6,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>103,23; 753,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,69; 588,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,5; 419,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,38; 271,35</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>298,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>147,8%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 7,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 6,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 6,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,66; 7,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>143,18; 588,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,01; 222,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,28; 268,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,28; 257,17</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>201,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,08%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,12%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 5,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 6,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 5,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 5,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,11; 288,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>109,06; 236,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>151,89; 324,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,07; 165,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>521,07%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>199,88%</t>
+          <t>282,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>401,29%</t>
+          <t>354,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>39,25%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 9,92</t>
+          <t>0,81; 5,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 11,1</t>
+          <t>4,79; 10,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 16,59</t>
+          <t>4,34; 9,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 4,66</t>
+          <t>-0,32; 4,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,75; 231,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,22; 1479,83</t>
+          <t>134,23; 602,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,5; —</t>
+          <t>152,03; 777,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,58; 425,71</t>
+          <t>-5,88; 116,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>4,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>179,9%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>296,06%</t>
+          <t>128,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>342,62%</t>
+          <t>323,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,19%</t>
+          <t>216,88%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,32; 4,97</t>
+          <t>2,26; 6,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,7</t>
+          <t>2,44; 6,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,72</t>
+          <t>3,68; 7,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,53</t>
+          <t>2,92; 6,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 190,16</t>
+          <t>72,66; 388,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>128,33; 628,16</t>
+          <t>50,25; 235,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>131,76; 845,32</t>
+          <t>148,9; 613,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 121,61</t>
+          <t>96,05; 518,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>179,9%</t>
+          <t>302,6%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>128,06%</t>
+          <t>234,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>323,27%</t>
+          <t>164,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>164,85%</t>
+          <t>97,57%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,19</t>
+          <t>2,4; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,62</t>
+          <t>2,56; 7,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,38</t>
+          <t>1,52; 5,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,62</t>
+          <t>-0,57; 6,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,66; 388,27</t>
+          <t>103,23; 753,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>50,25; 235,16</t>
+          <t>71,69; 588,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>148,9; 613,16</t>
+          <t>47,5; 419,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>64,29; 301,64</t>
+          <t>-7,67; 226,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>302,6%</t>
+          <t>298,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>234,04%</t>
+          <t>115,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>164,77%</t>
+          <t>140,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>127,63%</t>
+          <t>138,21%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,26</t>
+          <t>3,53; 7,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,28</t>
+          <t>2,37; 6,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,68</t>
+          <t>2,38; 6,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,89</t>
+          <t>2,95; 6,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>103,23; 753,89</t>
+          <t>143,18; 588,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>71,69; 588,73</t>
+          <t>44,01; 222,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,5; 419,73</t>
+          <t>59,28; 268,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,38; 271,35</t>
+          <t>66,96; 251,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>298,72%</t>
+          <t>201,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>115,2%</t>
+          <t>165,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>140,44%</t>
+          <t>224,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>147,8%</t>
+          <t>121,83%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,05</t>
+          <t>3,29; 5,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,88</t>
+          <t>4,01; 6,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,24</t>
+          <t>3,9; 5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,25</t>
+          <t>2,34; 5,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>143,18; 588,84</t>
+          <t>125,11; 288,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>44,01; 222,0</t>
+          <t>109,06; 236,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,28; 268,35</t>
+          <t>151,89; 324,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,28; 257,17</t>
+          <t>70,59; 194,3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,21</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4,91</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>201,69%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>165,08%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>224,8%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>118,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 5,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,01; 6,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,9; 5,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 5,08</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>125,11; 288,95</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>109,06; 236,09</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>151,89; 324,05</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>75,07; 165,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,16</t>
+          <t>1,03; 5,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,01</t>
+          <t>4,98; 10,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,12</t>
+          <t>4,36; 9,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,16</t>
+          <t>-0,31; 4,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,75; 231,01</t>
+          <t>24,32; 237,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>134,23; 602,3</t>
+          <t>136,91; 570,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>152,03; 777,11</t>
+          <t>156,07; 774,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 116,37</t>
+          <t>-5,76; 117,96</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,19</t>
+          <t>2,31; 6,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,62</t>
+          <t>2,35; 6,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,38</t>
+          <t>3,77; 7,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,25</t>
+          <t>2,87; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,66; 388,27</t>
+          <t>70,14; 388,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 235,16</t>
+          <t>51,33; 243,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>148,9; 613,16</t>
+          <t>155,0; 659,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,05; 518,22</t>
+          <t>92,26; 550,09</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,26</t>
+          <t>2,22; 6,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,28</t>
+          <t>2,71; 7,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,68</t>
+          <t>1,45; 5,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,05</t>
+          <t>-0,85; 5,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>103,23; 753,89</t>
+          <t>106,22; 773,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>71,69; 588,73</t>
+          <t>78,44; 598,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>47,5; 419,73</t>
+          <t>43,79; 401,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 226,84</t>
+          <t>-10,57; 221,76</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,05</t>
+          <t>3,7; 7,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,88</t>
+          <t>2,28; 6,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 6,24</t>
+          <t>2,39; 6,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,93</t>
+          <t>2,87; 6,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>143,18; 588,84</t>
+          <t>143,69; 597,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,01; 222,0</t>
+          <t>41,52; 216,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,28; 268,35</t>
+          <t>56,07; 280,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>66,96; 251,84</t>
+          <t>62,28; 247,11</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,17</t>
+          <t>3,32; 5,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,36</t>
+          <t>4,02; 6,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,94</t>
+          <t>3,93; 5,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,08</t>
+          <t>2,36; 5,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>125,11; 288,95</t>
+          <t>130,75; 301,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>109,06; 236,09</t>
+          <t>107,3; 230,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>151,89; 324,05</t>
+          <t>155,29; 331,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,59; 194,3</t>
+          <t>65,87; 187,79</t>
         </is>
       </c>
     </row>
